--- a/src/main/webapp/TemplateUpload/Template_Bom_CanDoi.xlsx
+++ b/src/main/webapp/TemplateUpload/Template_Bom_CanDoi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GMESApiCore\src\main\webapp\TemplateUpload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5678ED8-5A1E-491C-B998-D0BD389F0B17}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1E7029-12C8-4AAF-9252-ECA2E4C594EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>PO Line</t>
   </si>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t>Chỉ</t>
+  </si>
+  <si>
+    <t>Tên màu NPL</t>
+  </si>
+  <si>
+    <t>Mã màu NPL</t>
   </si>
 </sst>
 </file>
@@ -135,7 +141,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="174" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -221,7 +227,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -535,13 +541,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <pane xSplit="11" ySplit="2" topLeftCell="L29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -551,19 +557,19 @@
     <col min="3" max="3" width="18.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="11.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" style="3" customWidth="1"/>
     <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
-    <col min="14" max="28" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="14" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.7109375" style="1" customWidth="1"/>
+    <col min="16" max="30" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="67.5" customHeight="1">
+    <row r="1" spans="1:13" ht="67.5" customHeight="1">
       <c r="B1" s="4" t="s">
         <v>16</v>
       </c>
@@ -577,25 +583,31 @@
         <v>18</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30.75" customHeight="1">
+    <row r="2" spans="1:13" ht="30.75" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
@@ -611,24 +623,126 @@
       <c r="E2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>15</v>
       </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="F3"/>
+      <c r="G3"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="F4"/>
+      <c r="G4"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="F5"/>
+      <c r="G5"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="F6"/>
+      <c r="G6"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="F7"/>
+      <c r="G7"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="F8"/>
+      <c r="G8"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="F9"/>
+      <c r="G9"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="F10"/>
+      <c r="G10"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="F11"/>
+      <c r="G11"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="F12"/>
+      <c r="G12"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="F13"/>
+      <c r="G13"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="F14"/>
+      <c r="G14"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="F15"/>
+      <c r="G15"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="F16"/>
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="6:7">
+      <c r="F17"/>
+      <c r="G17"/>
+    </row>
+    <row r="18" spans="6:7">
+      <c r="F18"/>
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="6:7">
+      <c r="F19"/>
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="6:7">
+      <c r="F20"/>
+      <c r="G20"/>
+    </row>
+    <row r="21" spans="6:7">
+      <c r="F21"/>
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="6:7">
+      <c r="F22"/>
+      <c r="G22"/>
+    </row>
+    <row r="23" spans="6:7">
+      <c r="F23"/>
+      <c r="G23"/>
+    </row>
+    <row r="24" spans="6:7">
+      <c r="F24"/>
+      <c r="G24"/>
+    </row>
+    <row r="25" spans="6:7">
+      <c r="F25"/>
+      <c r="G25"/>
+    </row>
+    <row r="26" spans="6:7">
+      <c r="F26"/>
+      <c r="G26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/webapp/TemplateUpload/Template_Bom_CanDoi.xlsx
+++ b/src/main/webapp/TemplateUpload/Template_Bom_CanDoi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GMESApiCore\src\main\webapp\TemplateUpload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1E7029-12C8-4AAF-9252-ECA2E4C594EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBC84EB-0CA9-466C-A8C7-A90BD5C7FFEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -547,7 +547,7 @@
       <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -583,13 +583,13 @@
         <v>18</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>1</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>19</v>
@@ -623,14 +623,14 @@
       <c r="E2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>10</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>11</v>
@@ -649,100 +649,100 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="F3"/>
       <c r="G3"/>
+      <c r="H3"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="F4"/>
       <c r="G4"/>
+      <c r="H4"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="F5"/>
       <c r="G5"/>
+      <c r="H5"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="F6"/>
       <c r="G6"/>
+      <c r="H6"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="F7"/>
       <c r="G7"/>
+      <c r="H7"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="F8"/>
       <c r="G8"/>
+      <c r="H8"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="F9"/>
       <c r="G9"/>
+      <c r="H9"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="F10"/>
       <c r="G10"/>
+      <c r="H10"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="F11"/>
       <c r="G11"/>
+      <c r="H11"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="F12"/>
       <c r="G12"/>
+      <c r="H12"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="F13"/>
       <c r="G13"/>
+      <c r="H13"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="F14"/>
       <c r="G14"/>
+      <c r="H14"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="F15"/>
       <c r="G15"/>
+      <c r="H15"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="F16"/>
       <c r="G16"/>
-    </row>
-    <row r="17" spans="6:7">
-      <c r="F17"/>
+      <c r="H16"/>
+    </row>
+    <row r="17" spans="7:8">
       <c r="G17"/>
-    </row>
-    <row r="18" spans="6:7">
-      <c r="F18"/>
+      <c r="H17"/>
+    </row>
+    <row r="18" spans="7:8">
       <c r="G18"/>
-    </row>
-    <row r="19" spans="6:7">
-      <c r="F19"/>
+      <c r="H18"/>
+    </row>
+    <row r="19" spans="7:8">
       <c r="G19"/>
-    </row>
-    <row r="20" spans="6:7">
-      <c r="F20"/>
+      <c r="H19"/>
+    </row>
+    <row r="20" spans="7:8">
       <c r="G20"/>
-    </row>
-    <row r="21" spans="6:7">
-      <c r="F21"/>
+      <c r="H20"/>
+    </row>
+    <row r="21" spans="7:8">
       <c r="G21"/>
-    </row>
-    <row r="22" spans="6:7">
-      <c r="F22"/>
+      <c r="H21"/>
+    </row>
+    <row r="22" spans="7:8">
       <c r="G22"/>
-    </row>
-    <row r="23" spans="6:7">
-      <c r="F23"/>
+      <c r="H22"/>
+    </row>
+    <row r="23" spans="7:8">
       <c r="G23"/>
-    </row>
-    <row r="24" spans="6:7">
-      <c r="F24"/>
+      <c r="H23"/>
+    </row>
+    <row r="24" spans="7:8">
       <c r="G24"/>
-    </row>
-    <row r="25" spans="6:7">
-      <c r="F25"/>
+      <c r="H24"/>
+    </row>
+    <row r="25" spans="7:8">
       <c r="G25"/>
-    </row>
-    <row r="26" spans="6:7">
-      <c r="F26"/>
+      <c r="H25"/>
+    </row>
+    <row r="26" spans="7:8">
       <c r="G26"/>
+      <c r="H26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/webapp/TemplateUpload/Template_Bom_CanDoi.xlsx
+++ b/src/main/webapp/TemplateUpload/Template_Bom_CanDoi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GMESApiCore\src\main\webapp\TemplateUpload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBC84EB-0CA9-466C-A8C7-A90BD5C7FFEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE99F264-F92C-4B4D-A69B-8CADEF133647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>PO Line</t>
   </si>
@@ -134,6 +134,12 @@
   </si>
   <si>
     <t>Mã màu NPL</t>
+  </si>
+  <si>
+    <t>Mã sản phẩm sử dụng NPL(Nhiều mã thì cách nhau bởi dấu ,)</t>
+  </si>
+  <si>
+    <t>Mã SP</t>
   </si>
 </sst>
 </file>
@@ -231,7 +237,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -256,6 +262,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -541,13 +550,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="14" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1:F1048576"/>
+      <selection pane="bottomRight" activeCell="K1" sqref="K1:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -560,16 +569,17 @@
     <col min="6" max="8" width="11.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.140625" style="2" customWidth="1"/>
     <col min="10" max="10" width="13.140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.7109375" style="1" customWidth="1"/>
-    <col min="16" max="30" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="26.5703125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="5.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.7109375" style="1" customWidth="1"/>
+    <col min="17" max="31" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="67.5" customHeight="1">
+    <row r="1" spans="1:14" ht="67.5" customHeight="1">
       <c r="B1" s="4" t="s">
         <v>16</v>
       </c>
@@ -598,16 +608,19 @@
         <v>22</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="30.75" customHeight="1">
+    <row r="2" spans="1:14" ht="30.75" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
@@ -638,69 +651,72 @@
       <c r="J2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="G3"/>
       <c r="H3"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="G4"/>
       <c r="H4"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="G5"/>
       <c r="H5"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="G6"/>
       <c r="H6"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="G7"/>
       <c r="H7"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="G8"/>
       <c r="H8"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="G9"/>
       <c r="H9"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="G10"/>
       <c r="H10"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="G11"/>
       <c r="H11"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="G12"/>
       <c r="H12"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="G13"/>
       <c r="H13"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="G14"/>
       <c r="H14"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="G15"/>
       <c r="H15"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14">
       <c r="G16"/>
       <c r="H16"/>
     </row>
